--- a/biology/Médecine/Rétention_aiguë_d'urine/Rétention_aiguë_d'urine.xlsx
+++ b/biology/Médecine/Rétention_aiguë_d'urine/Rétention_aiguë_d'urine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+          <t>Rétention_aiguë_d'urine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rétention aiguë d'urine est l'incapacité soudaine pour un individu d'émettre des urines alors qu'il a la vessie pleine. Le volume de la vessie augmente alors. On parle parfois ainsi de globe vésical. La capacité de la vessie est importante, mais le volume déclenchant l'envie de miction est d'environ 400 ml pour un adulte.
-Elle était appelée anciennement « ischurie[1] ».
+Elle était appelée anciennement « ischurie ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+          <t>Rétention_aiguë_d'urine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,108 +527,359 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Symptômes
-Douleurs au niveau de l'hypogastre
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Douleurs au niveau de l'hypogastre
 Absence d'émission d'urines depuis plusieurs heures
-Confusion, un état d'agitation. Il peut apparaître au-delà d'un certain volume d'urine, la rétention.
-Examen physique
-L'examen physique montre une masse dans le bas ventre, au-dessus du pubis, arrondie, tendue, et mate à la percussion.
-Diagnostic différentiel
-Anurie : absence de production d'urine lors d'un état de choc.
-Fécalome : peut être associé, peut entraîner une rétention aiguë d'urines et peut être une autre cause de confusion.
-Autres formes
-Rétention urinaire chronique :
+Confusion, un état d'agitation. Il peut apparaître au-delà d'un certain volume d'urine, la rétention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Examen physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen physique montre une masse dans le bas ventre, au-dessus du pubis, arrondie, tendue, et mate à la percussion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anurie : absence de production d'urine lors d'un état de choc.
+Fécalome : peut être associé, peut entraîner une rétention aiguë d'urines et peut être une autre cause de confusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres formes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rétention urinaire chronique :
 pesanteur pelvienne ;
 pollakiurie ;
 dysurie ;
 jet de mauvaise qualité ;
-sensation de mauvaise vidange vésicale.
-Complications
-La plus fréquente des complications est l'infection urinaire : cystite d'abord, pyélonéphrite ensuite.
+sensation de mauvaise vidange vésicale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus fréquente des complications est l'infection urinaire : cystite d'abord, pyélonéphrite ensuite.
 Lorsqu'elle est chronique, la rétention provoque une distension de la vessie avec atonie du détrusor, hypertrophie du détrusor ou diverticules vésicaux. La rétention urinaire pourrait provoquer un refoulement de l'urine vers les reins, causant une hydronéphrose.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R%C3%A9tention_aigu%C3%AB_d%27urine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Causes prostatiques chez l'homme
-Hypertrophie bénigne de la prostate (adénome de prostate)
-Cancer de la prostate
-Causes urétrales
-Calcul ou caillot sanguin dans l'urètre
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Causes prostatiques chez l'homme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hypertrophie bénigne de la prostate (adénome de prostate)
+Cancer de la prostate</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Causes urétrales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Calcul ou caillot sanguin dans l'urètre
 Tumeur
 Hypoactivité vésicale
 Phimosis
 Valve de l'urètre postérieur
 Sténose urétrale traumatique
-Compression urétrale extrinsèque : fécalome, tumeur pelvienne
-Médicaments
-Anticholinergiques (parasympathycolytiques) (antispasmodiques, antidépresseurs tricycliques, certains antalgiques)
+Compression urétrale extrinsèque : fécalome, tumeur pelvienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Anticholinergiques (parasympathycolytiques) (antispasmodiques, antidépresseurs tricycliques, certains antalgiques)
 Antiparkinsoniens
 Antihistaminiques
 Antihypertenseurs
-Opiacés et opioïdes
-Causes neurologiques
-Trouble sphinctérien d'origine neurologique :
+Opiacés et opioïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Causes neurologiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Trouble sphinctérien d'origine neurologique :
 paraplégie ;
-syndrome de la queue de cheval[2] ;
+syndrome de la queue de cheval ;
 sclérose en plaques.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9tention_aigu%C3%AB_d%27urine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rétention_aiguë_d'urine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tention_aigu%C3%AB_d%27urine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but est d'évacuer l'urine.
-Un sondage vésical, anciennement appelé sondage urinaire, ou une ponction sus-pubienne est nécessaire en cas de persistance. La vidange de la vessie lors d'un sondage vésical peut s’effectuer de façon rapide sans nécessiter de fractionnement, sans conséquence significative sur la vessie ou sur la tension artérielle[3].
+Un sondage vésical, anciennement appelé sondage urinaire, ou une ponction sus-pubienne est nécessaire en cas de persistance. La vidange de la vessie lors d'un sondage vésical peut s’effectuer de façon rapide sans nécessiter de fractionnement, sans conséquence significative sur la vessie ou sur la tension artérielle.
 Un médicament alpha-bloquant peut être donné en première intention pour éviter les récidives chez l'homme en cas d'hypertrophie bénigne de la prostate.
 </t>
         </is>
